--- a/medicine/Mort/Cimetière_Fernhill/Cimetière_Fernhill.xlsx
+++ b/medicine/Mort/Cimetière_Fernhill/Cimetière_Fernhill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Fernhill</t>
+          <t>Cimetière_Fernhill</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Fernhill est un cimetière canadien de Saint-Jean, au Nouveau-Brunswick.
 C'est à l'initiative d'un groupe de citoyens de Saint-Jean que le cimetière Fernhill est créé en 1848 sous le nom de Rural Cemetery. Il devait à l'origine être ouvert à toutes les confessions, mais les catholiques et les méthodistes, qui possédaient leurs propres cimetières, refusèrent de participer au projet. C'est en 1899 que le cimetière prend son nom actuel de Fernhill.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Fernhill</t>
+          <t>Cimetière_Fernhill</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Célébrités enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amos Edwin Botsford (1804-1894), homme politique, ancien président du Sénat du Canada ;
 John Douglas Hazen (1860-1937), homme politique, ancien premier ministre du Nouveau-Brunswick ;
